--- a/data/Adsesy.xlsx
+++ b/data/Adsesy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\project\Adsesy_robot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\project\Adsesy\Adsesy_robot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A8521B-6F28-47F8-9183-C7372D64AD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43C693B-5ACB-4DFE-AEA9-3327D2AB15A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{85359660-49F8-415C-A0C3-29D40276CA8A}"/>
+    <workbookView xWindow="1290" yWindow="3255" windowWidth="21600" windowHeight="11385" xr2:uid="{85359660-49F8-415C-A0C3-29D40276CA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="InvalidAccount" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>${username}</t>
   </si>
@@ -51,29 +51,35 @@
     <t>Invalid email or password</t>
   </si>
   <si>
-    <t>o tp.kien</t>
-  </si>
-  <si>
     <t>zxcvbnm.1</t>
   </si>
   <si>
-    <t xml:space="preserve">otp.kien </t>
-  </si>
-  <si>
     <t xml:space="preserve"> zxcvbnm.1 </t>
   </si>
   <si>
-    <t xml:space="preserve">otp.kien  </t>
-  </si>
-  <si>
     <t>zxcvbn m.1</t>
+  </si>
+  <si>
+    <t>otp.kienn26123@ruu.kr</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>o tp.kien@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">otp.kien@gmail.com    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @gmail.otp.kien </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +89,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,16 +119,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -427,14 +444,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1349D5-FA77-4AE0-9017-B77860277637}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -457,31 +475,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>123</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>456123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -489,31 +504,55 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{F98A645C-B260-48C4-A0F5-DD4D6A5494E4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{6956CA9D-C3EA-4C0A-AEA8-45AA4186A0C1}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{5E9CF500-A3BB-44DA-AA1D-C4E035DEA645}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>